--- a/KS2/Year-3.xlsx
+++ b/KS2/Year-3.xlsx
@@ -198,9 +198,6 @@
     <t>Project Success Criteria</t>
   </si>
   <si>
-    <t>Nine-Thirteen</t>
-  </si>
-  <si>
     <t>Stop-frame animation</t>
   </si>
   <si>
@@ -396,6 +393,9 @@
   <si>
     <t>I can implement strategies to minimise the risk of data being compromised through human error
 I can recognise how human errors pose security risks to data</t>
+  </si>
+  <si>
+    <t>Nine-Twelve</t>
   </si>
 </sst>
 </file>
@@ -1005,15 +1005,15 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="22"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="5" width="27.85546875" style="29" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="8" width="9.7109375" style="21" customWidth="1"/>
@@ -1087,13 +1087,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>4</v>
@@ -1126,13 +1126,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>6</v>
@@ -1165,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="9">
         <v>3</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>8</v>
@@ -1204,13 +1204,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="15">
         <v>1</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>16</v>
@@ -1243,13 +1243,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F7" s="9">
         <v>2</v>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>18</v>
@@ -1282,13 +1282,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="9">
         <v>3</v>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>20</v>
@@ -1321,13 +1321,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="9">
         <v>4</v>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>22</v>
@@ -1360,13 +1360,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F10" s="9">
         <v>5</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>24</v>
@@ -1399,13 +1399,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>49</v>
       </c>
       <c r="F11" s="12">
         <v>6</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="13" t="s">
         <v>26</v>
@@ -1438,13 +1438,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9">
         <v>4</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>10</v>
@@ -1477,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="9">
         <v>5</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>12</v>
@@ -1516,13 +1516,13 @@
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="12">
         <v>6</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>14</v>
@@ -1555,13 +1555,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="30">
         <v>1</v>
@@ -1573,14 +1573,14 @@
         <v>1</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="32"/>
       <c r="K15" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L15" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="33"/>
     </row>
@@ -1592,13 +1592,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="30">
         <v>2</v>
@@ -1610,14 +1610,14 @@
         <v>2</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="32"/>
       <c r="K16" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M16" s="33"/>
     </row>
@@ -1629,13 +1629,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="30">
         <v>3</v>
@@ -1647,14 +1647,14 @@
         <v>3</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="33"/>
     </row>
@@ -1666,13 +1666,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" s="15">
         <v>1</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>28</v>
@@ -1705,13 +1705,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="9">
         <v>5</v>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>30</v>
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="12">
         <v>6</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>32</v>
@@ -1783,13 +1783,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L21" s="16" t="s">
         <v>34</v>
@@ -1822,13 +1822,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="9">
         <v>2</v>
@@ -1844,10 +1844,10 @@
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="M22" s="18">
         <v>0</v>
@@ -1861,13 +1861,13 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="9">
         <v>3</v>
@@ -1883,10 +1883,10 @@
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="M23" s="18">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="9">
         <v>4</v>
@@ -1918,14 +1918,14 @@
         <v>1</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="18">
         <v>0</v>
@@ -1939,13 +1939,13 @@
         <v>3</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="9">
         <v>5</v>
@@ -1957,14 +1957,14 @@
         <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="M25" s="18">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="12">
         <v>6</v>
@@ -2000,10 +2000,10 @@
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="M26" s="19">
         <v>0</v>

--- a/KS2/Year-3.xlsx
+++ b/KS2/Year-3.xlsx
@@ -520,9 +520,6 @@
     </r>
   </si>
   <si>
-    <t>https://threatmap.checkpoint.com/                     https:/scratch.mit.edu/ http://policies.google.com/privacy#infocollect</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                     Scratch Offline Editor (Desktop/Laptop)                                                                            scratch.mit.edu (Web)</t>
   </si>
   <si>
@@ -615,12 +612,15 @@
       <t xml:space="preserve">     </t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> http://policies.google.com/privacy#infocollect https://threatmap.checkpoint.com/                     https:/scratch.mit.edu/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -689,21 +689,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="Arial"/>
@@ -1019,16 +1005,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1308,9 +1294,9 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1781,8 +1767,8 @@
         <f>-To explain how a computer network can be used To share information</f>
         <v>#NAME?</v>
       </c>
-      <c r="J12" s="43" t="s">
-        <v>99</v>
+      <c r="J12" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>57</v>
@@ -1822,8 +1808,8 @@
       <c r="I13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="43" t="s">
-        <v>99</v>
+      <c r="J13" s="41" t="s">
+        <v>98</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>58</v>
@@ -1863,8 +1849,8 @@
       <c r="I14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="43" t="s">
-        <v>100</v>
+      <c r="J14" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>59</v>
@@ -1905,7 +1891,7 @@
         <v>80</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>91</v>
@@ -1943,8 +1929,8 @@
       <c r="I16" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="40" t="s">
-        <v>97</v>
+      <c r="J16" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>81</v>
@@ -1982,8 +1968,8 @@
       <c r="I17" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="40" t="s">
-        <v>97</v>
+      <c r="J17" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>89</v>
@@ -2021,8 +2007,8 @@
       <c r="I18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="41" t="s">
-        <v>98</v>
+      <c r="J18" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>85</v>
@@ -2062,8 +2048,8 @@
       <c r="I19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="41" t="s">
-        <v>98</v>
+      <c r="J19" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>86</v>
@@ -2103,8 +2089,8 @@
       <c r="I20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="41" t="s">
-        <v>98</v>
+      <c r="J20" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>87</v>
@@ -2144,8 +2130,8 @@
       <c r="I21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>98</v>
+      <c r="J21" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>65</v>
@@ -2185,8 +2171,8 @@
       <c r="I22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="41" t="s">
-        <v>98</v>
+      <c r="J22" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>66</v>
@@ -2226,8 +2212,8 @@
       <c r="I23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="41" t="s">
-        <v>98</v>
+      <c r="J23" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>69</v>
@@ -2267,8 +2253,8 @@
       <c r="I24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="41" t="s">
-        <v>98</v>
+      <c r="J24" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>73</v>
@@ -2308,8 +2294,8 @@
       <c r="I25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J25" s="41" t="s">
-        <v>98</v>
+      <c r="J25" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>74</v>
@@ -2349,8 +2335,8 @@
       <c r="I26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="41" t="s">
-        <v>98</v>
+      <c r="J26" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>76</v>

--- a/KS2/Year-3.xlsx
+++ b/KS2/Year-3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Lesson</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve"> http://policies.google.com/privacy#infocollect https://threatmap.checkpoint.com/                     https:/scratch.mit.edu/</t>
+  </si>
+  <si>
+    <t>To explain how a computer network can be used To share information</t>
   </si>
 </sst>
 </file>
@@ -1294,9 +1297,9 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1763,9 +1766,8 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="8" t="e">
-        <f>-To explain how a computer network can be used To share information</f>
-        <v>#NAME?</v>
+      <c r="I12" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>98</v>

--- a/KS2/Year-3.xlsx
+++ b/KS2/Year-3.xlsx
@@ -366,9 +366,6 @@
     <t>Learners should identify and name the objects they will need for a project
 Learners should implement their algorithm as code
 Learners should relate a task description to a design</t>
-  </si>
-  <si>
-    <t>Introduction of Digital Safety</t>
   </si>
   <si>
     <t>Learners should define hacking in the context of Digital safety
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>To explain how a computer network can be used To share information</t>
+  </si>
+  <si>
+    <t>Introduction to Digital Safety</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1298,8 +1314,8 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="38.1" customHeight="1"/>
@@ -1380,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>78</v>
@@ -1401,7 +1417,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>52</v>
@@ -1421,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>78</v>
@@ -1442,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>53</v>
@@ -1462,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>78</v>
@@ -1483,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>54</v>
@@ -1503,7 +1519,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>48</v>
@@ -1524,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="14" t="s">
         <v>64</v>
@@ -1544,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>48</v>
@@ -1565,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>55</v>
@@ -1585,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>48</v>
@@ -1606,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>56</v>
@@ -1626,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>48</v>
@@ -1647,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>62</v>
@@ -1667,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>48</v>
@@ -1688,7 +1704,7 @@
         <v>22</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>61</v>
@@ -1708,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>48</v>
@@ -1729,7 +1745,7 @@
         <v>24</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>60</v>
@@ -1749,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>78</v>
@@ -1767,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>57</v>
@@ -1790,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>78</v>
@@ -1811,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>58</v>
@@ -1831,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>78</v>
@@ -1852,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>59</v>
@@ -1872,13 +1888,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F15" s="27">
         <v>1</v>
@@ -1893,13 +1909,13 @@
         <v>80</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M15" s="30"/>
     </row>
@@ -1911,13 +1927,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F16" s="27">
         <v>2</v>
@@ -1932,13 +1948,13 @@
         <v>82</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" s="29" t="s">
         <v>81</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="30"/>
     </row>
@@ -1950,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>79</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F17" s="27">
         <v>3</v>
@@ -1971,10 +1987,10 @@
         <v>83</v>
       </c>
       <c r="J17" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L17" s="29" t="s">
         <v>84</v>
@@ -1989,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>50</v>
@@ -2010,7 +2026,7 @@
         <v>26</v>
       </c>
       <c r="J18" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>85</v>
@@ -2030,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>50</v>
@@ -2051,7 +2067,7 @@
         <v>28</v>
       </c>
       <c r="J19" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>86</v>
@@ -2071,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>50</v>
@@ -2092,7 +2108,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>87</v>
@@ -2112,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>50</v>
@@ -2133,7 +2149,7 @@
         <v>32</v>
       </c>
       <c r="J21" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>65</v>
@@ -2153,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>50</v>
@@ -2174,7 +2190,7 @@
         <v>34</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>66</v>
@@ -2194,7 +2210,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>50</v>
@@ -2215,7 +2231,7 @@
         <v>35</v>
       </c>
       <c r="J23" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>69</v>
@@ -2235,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>50</v>
@@ -2256,7 +2272,7 @@
         <v>71</v>
       </c>
       <c r="J24" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>73</v>
@@ -2276,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>50</v>
@@ -2297,7 +2313,7 @@
         <v>72</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>74</v>
@@ -2317,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>50</v>
@@ -2338,7 +2354,7 @@
         <v>36</v>
       </c>
       <c r="J26" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>76</v>
@@ -2359,42 +2375,42 @@
     <filterColumn colId="9"/>
   </autoFilter>
   <conditionalFormatting sqref="M3:M26 B3:L5 B18:L20">
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$M3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M26 B3:L5 B18:L20">
-    <cfRule type="expression" dxfId="6" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>$M3=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L17">
-    <cfRule type="expression" dxfId="5" priority="19">
+    <cfRule type="expression" dxfId="7" priority="19">
       <formula>$M6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:L17">
-    <cfRule type="expression" dxfId="4" priority="21">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>$M6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L11">
-    <cfRule type="expression" dxfId="3" priority="23">
+    <cfRule type="expression" dxfId="5" priority="23">
       <formula>$M9=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:L11">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>$M9=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L26">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:L26">
-    <cfRule type="expression" dxfId="0" priority="37">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
